--- a/AdminInvoiceHandler/ExcelData/ANAGRAFICA TERZE PARTI AL 05 05 2021.xlsx
+++ b/AdminInvoiceHandler/ExcelData/ANAGRAFICA TERZE PARTI AL 05 05 2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agostino.tenuta\Documents\Amministrazione\AdminInvoiceHandler\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo.stumpo\Desktop\Amministrazione\AdminInvoiceHandler\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E02DE50-125A-42AC-A489-66D6DD5E83BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB07ADA-8FFA-403E-A5A6-802EBC19EA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,10 +1282,10 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
